--- a/index-file/index (1).xlsx
+++ b/index-file/index (1).xlsx
@@ -14,31 +14,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
-  <si>
-    <t>SUHARTO PUTRA</t>
-  </si>
-  <si>
-    <t>MI;MYIR-10371226000001;SPLH01M-B1928PIW;SUHARTO_PUTRA;082349624400</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>C20490 ~ CS20 - Indihome 2P Internet + Phone (INET)</t>
   </si>
   <si>
-    <t>2021-11-17T06:16:51.000000Z</t>
-  </si>
-  <si>
-    <t>RISNAWATI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172101148149
-</t>
-  </si>
-  <si>
-    <t>MI;MYIR-10370838040001;SPLH01M-B1928PIW;Risnawati;085256313868</t>
-  </si>
-  <si>
     <t>C21184 ~ CS21 - New IndiHome 2P 2021 Internet Phone Low Competition (INET)</t>
+  </si>
+  <si>
+    <t>ANWAR RAHIM</t>
+  </si>
+  <si>
+    <t>ANDI ADIL SETIAWAN</t>
+  </si>
+  <si>
+    <t>MUH HARY SAPUTRA</t>
+  </si>
+  <si>
+    <t>MUH ZULFADRI SYAM</t>
+  </si>
+  <si>
+    <t>MUHAMMAD FADHLI TAKBIR</t>
+  </si>
+  <si>
+    <t>YUNITA BAHMAN</t>
+  </si>
+  <si>
+    <t>PARAMITHA ZULAIKHA</t>
+  </si>
+  <si>
+    <t>172107208937</t>
+  </si>
+  <si>
+    <t>172103364346</t>
+  </si>
+  <si>
+    <t>172101149776</t>
+  </si>
+  <si>
+    <t>172103366874</t>
+  </si>
+  <si>
+    <t>172103364077</t>
+  </si>
+  <si>
+    <t>172102773629</t>
+  </si>
+  <si>
+    <t>172103367545</t>
+  </si>
+  <si>
+    <t>MI;MYIR-10375284460001;SPAS94M-B1928PIW;ANWAR_RAHIM;082197490327</t>
+  </si>
+  <si>
+    <t>MI;MYIR-10375514410001;SPAS94M-B1928PIW;ANDI_ADIL_SETIAWAN;085353281332</t>
+  </si>
+  <si>
+    <t>MI;MYIR-10373371620001;SPAS94M-B1928PIW;MUH__HARY__SAPUTRA;082216784187</t>
+  </si>
+  <si>
+    <t>MI;MYIR-10373670370001;SPAS94M-B1928PIW;MUH_ZULFADRI_SYAM;087869998640</t>
+  </si>
+  <si>
+    <t>MI;MYIR-10374809150001;SPAS94M-B1928PIW;MUHAMMAD_FADHLI_TAKBIR;0895806366313</t>
+  </si>
+  <si>
+    <t>MI;MYIR-10375092230001;SPAS94M-B1928PIW;YUNITA_BAHMAN;081241148855</t>
+  </si>
+  <si>
+    <t>MI;MYIR-10375684950001;SPAS94M-B1928PIW;PARAMITHA_ZULAIKHA;082191380068</t>
+  </si>
+  <si>
+    <t>20480</t>
+  </si>
+  <si>
+    <t>51200</t>
+  </si>
+  <si>
+    <t>30720</t>
+  </si>
+  <si>
+    <t>C20514 ~ CS20 - IndiHome Gamer (INET)</t>
+  </si>
+  <si>
+    <t>50MBPS INET TELPON</t>
   </si>
 </sst>
 </file>
@@ -60,7 +119,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -68,12 +127,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,29 +452,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="26.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>172103364370</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>20480</v>
-      </c>
-      <c r="E1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="F1">
         <v>1.25</v>
@@ -405,40 +492,143 @@
       <c r="G1">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2">
+        <v>1.55</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1.25</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1.25</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>30720</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1.25</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2">
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6">
         <v>1.25</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3</v>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1.25</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
